--- a/Examples/reposit/full/FullLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/full/FullLibXL/Workbooks/AddinXl.xlsx
@@ -375,7 +375,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="str">
-        <f>_xll.slFunc()</f>
+        <f>_xll.flFunc()</f>
         <v>f()</v>
       </c>
     </row>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>_xll.slAdder("adder", 1)</f>
+        <f>_xll.flAdder("adder", 1)</f>
         <v>adder#0000</v>
       </c>
     </row>
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>_xll.slAdderAdd(B2,2)</f>
+        <f>_xll.flAdderAdd(B2,2)</f>
         <v>3</v>
       </c>
     </row>
